--- a/VNX/EMC LUN Creation.xlsx
+++ b/VNX/EMC LUN Creation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mike/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mike/GitHub/Scripts/VNX/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Start Here" sheetId="3" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Requires Unisphere CLI to be installed for uemcli commands</t>
   </si>
   <si>
-    <t># Values from Info Tab (DO NOT MODIFY)</t>
-  </si>
-  <si>
     <t>Admin Password</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>Drag Top Row Down After Updating (DO NOT MANUALLY EDIT)</t>
+  </si>
+  <si>
+    <t># Values from Start Here Tab (DO NOT MODIFY)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -530,6 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -896,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -926,7 +927,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -934,7 +935,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -980,7 +981,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,7 +989,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -996,7 +997,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1004,12 +1005,12 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1024,7 @@
     </row>
     <row r="19" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>22</v>
@@ -1031,12 +1032,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1062,7 +1063,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="25"/>
@@ -1099,7 +1100,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
@@ -1120,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" zoomScale="99" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1140,8 +1141,8 @@
         <f>'Start Here'!B8</f>
         <v>10.200.100.63</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
+      <c r="C1" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -1152,8 +1153,8 @@
         <f>'Start Here'!B9</f>
         <v>sysadmin</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
+      <c r="C2" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -1164,8 +1165,8 @@
         <f>'Start Here'!B10</f>
         <v>sysadmin</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
+      <c r="C3" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -1185,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1384,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1406,8 @@
         <f>'Start Here'!B18</f>
         <v>10.10.92.45</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
+      <c r="C1" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -1417,8 +1418,8 @@
         <f>'Start Here'!B19</f>
         <v>Pdntsp@7</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
+      <c r="C2" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -1428,8 +1429,8 @@
       <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
+      <c r="C3" s="35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -1446,7 +1447,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
